--- a/src/test/resources/TestData-PROD.xlsx
+++ b/src/test/resources/TestData-PROD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>testname</t>
   </si>
@@ -41,6 +41,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>addEmployeeTest</t>
+  </si>
+  <si>
+    <t>To check whether the user can add new employee</t>
+  </si>
+  <si>
     <t>browser</t>
   </si>
   <si>
@@ -96,6 +102,9 @@
   </si>
   <si>
     <t>amazonTest</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -118,11 +127,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="22"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -166,7 +170,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top style="thin">
@@ -187,7 +191,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -197,7 +201,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top/>
@@ -214,7 +218,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom/>
@@ -222,12 +226,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -236,18 +240,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -257,14 +261,14 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -300,9 +304,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +322,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -1417,7 +1419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="27.8516" style="1" customWidth="1"/>
     <col min="2" max="2" width="101.172" style="1" customWidth="1"/>
@@ -1462,18 +1464,28 @@
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="A3" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="6"/>
@@ -1532,7 +1544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="30.1719" style="12" customWidth="1"/>
     <col min="2" max="3" width="18.1719" style="12" customWidth="1"/>
@@ -1552,22 +1564,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
@@ -1575,19 +1587,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="13"/>
@@ -1597,35 +1609,35 @@
         <v>5</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" ht="28.8" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1634,20 +1646,20 @@
     </row>
     <row r="5" ht="28.8" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="14"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
     <row r="6" ht="28.8" customHeight="1">
@@ -1655,13 +1667,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1670,16 +1682,16 @@
     </row>
     <row r="7" ht="28.8" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1688,16 +1700,16 @@
     </row>
     <row r="8" ht="28.8" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1706,16 +1718,16 @@
     </row>
     <row r="9" ht="34.05" customHeight="1">
       <c r="A9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>25</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1723,12 +1735,24 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="A10" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>

--- a/src/test/resources/TestData-PROD.xlsx
+++ b/src/test/resources/TestData-PROD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>testname</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>To check whether the user can add new employee</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>browser</t>
@@ -1477,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
@@ -1564,22 +1567,22 @@
         <v>2</v>
       </c>
       <c r="C1" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="28.8" customHeight="1">
@@ -1587,19 +1590,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="13"/>
@@ -1609,35 +1612,35 @@
         <v>5</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="13"/>
     </row>
     <row r="4" ht="28.8" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1646,16 +1649,16 @@
     </row>
     <row r="5" ht="28.8" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1667,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1682,16 +1685,16 @@
     </row>
     <row r="7" ht="28.8" customHeight="1">
       <c r="A7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>28</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -1700,16 +1703,16 @@
     </row>
     <row r="8" ht="28.8" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1718,16 +1721,16 @@
     </row>
     <row r="9" ht="34.05" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1742,16 +1745,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
